--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.096</v>
+        <v>19.675</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-7.444</v>
+        <v>-0.906</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.927</v>
+        <v>24.193</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.712</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.054</v>
+        <v>15.69</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.67002831819072</v>
+        <v>0.2176087889524077</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36.39113101959063</v>
+        <v>27.21931312050719</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39.25855497693606</v>
+        <v>33.42710382893556</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.56732796999891</v>
+        <v>4.809969314570221</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>39.11656190363968</v>
+        <v>25.88255172417636</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>42.22108961828046</v>
+        <v>31.29316966724815</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35.98927763729007</v>
+        <v>16.61091460818959</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>44.74206950729337</v>
+        <v>34.03013110527809</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>47.31912454377282</v>
+        <v>38.42268109985456</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42.24745002042791</v>
+        <v>39.19235380837422</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>52.36777016385957</v>
+        <v>45.59512672155778</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>55.92316693269933</v>
+        <v>50.46904061380557</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>38.15293586269752</v>
+        <v>13.26220465998905</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>54.42472598665039</v>
+        <v>38.35865514731202</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>59.22888726008244</v>
+        <v>44.91642411796698</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.8822770392867</v>
+        <v>2.426963086152028</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.48638051630283</v>
+        <v>33.48696705881573</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.32357985604173</v>
+        <v>42.59613799097458</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.65445011982185</v>
+        <v>3.625268420808869</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>39.07724382711918</v>
+        <v>28.94303440549677</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>42.14832368107751</v>
+        <v>37.22328698689003</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35.96500040124903</v>
+        <v>18.48913025880134</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>44.61339508074595</v>
+        <v>39.34641672769672</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>47.16210142671937</v>
+        <v>46.21483180413188</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>42.10769660186222</v>
+        <v>44.17421138568422</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.10915329693854</v>
+        <v>52.27217573533283</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>55.6274085452924</v>
+        <v>59.16633636927506</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.06923663995101</v>
+        <v>17.5187644598067</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>54.14353010834181</v>
+        <v>48.02601418097142</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>58.89873065880965</v>
+        <v>57.46870664887848</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.2159735172224</v>
+        <v>10.12926274713803</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.82686561841385</v>
+        <v>44.01292852601735</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50.70132916302035</v>
+        <v>52.9818536599807</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.73660346589845</v>
+        <v>12.38728411217207</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>51.16673676587107</v>
+        <v>40.65872710737984</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>54.28210788445099</v>
+        <v>48.94437141377935</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48.43495033800095</v>
+        <v>29.70588131362862</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>57.09056820513871</v>
+        <v>53.27536970657916</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>59.67824568794644</v>
+        <v>60.0733206162908</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>54.59286551155398</v>
+        <v>62.77425664632048</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>64.6030325541182</v>
+        <v>70.96621217689182</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>68.17616052492492</v>
+        <v>78.22338039603031</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>50.41128862972274</v>
+        <v>32.245595543533</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>66.48988877235955</v>
+        <v>66.24716182487199</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>71.30265497642866</v>
+        <v>75.63140007796655</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>23.58812314098929</v>
+        <v>4.227856774133073</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>33.49893994993853</v>
+        <v>32.77344836127282</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.25137845855738</v>
+        <v>38.08153480804384</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.24802915656726</v>
+        <v>9.836568488371373</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.00827723180076</v>
+        <v>32.59836819741127</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.98676429829325</v>
+        <v>37.17982455548355</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32.66138668489217</v>
+        <v>22.16573652920261</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>41.59098416676484</v>
+        <v>41.05410136393806</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.06354283947176</v>
+        <v>44.72257239562977</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.9172687781363</v>
+        <v>45.35945015069154</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49.22026431997398</v>
+        <v>52.51109870124618</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.64600421714626</v>
+        <v>56.62906161993047</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>34.65352461299395</v>
+        <v>17.34910148192476</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>51.24355263628166</v>
+        <v>44.4510589607801</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>55.84881483840032</v>
+        <v>49.96058728079841</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>23.76055838591974</v>
+        <v>3.000990319362831</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.55069206989908</v>
+        <v>35.40859789424668</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.27455762593164</v>
+        <v>43.47488520841794</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.29535522006148</v>
+        <v>4.885440573921564</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>35.92518153020631</v>
+        <v>31.6330698054197</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.87201295200931</v>
+        <v>38.98415337368646</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.59533654762778</v>
+        <v>20.46756151024851</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.41720310825424</v>
+        <v>42.58168652983902</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.86293537447142</v>
+        <v>48.63083685479768</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>38.73857773572597</v>
+        <v>47.11583725658394</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>48.91904771566836</v>
+        <v>55.79989251669697</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>52.30905918835518</v>
+        <v>61.98273378686964</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.5373497635869</v>
+        <v>18.75291870447377</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>50.92367318211805</v>
+        <v>50.9889869476733</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>55.4826100448852</v>
+        <v>59.27584795127871</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>35.37277031591179</v>
+        <v>10.71577042176458</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.16850308256213</v>
+        <v>46.06746012603729</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.92452090501882</v>
+        <v>53.92603543883601</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>37.67333200674083</v>
+        <v>13.29395877389255</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>48.30883112835966</v>
+        <v>43.13367256174947</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>51.29445922172644</v>
+        <v>50.39196392443273</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>45.36681587399764</v>
+        <v>31.46860847308498</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>54.19442342620646</v>
+        <v>56.4201929528553</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56.67441380189382</v>
+        <v>62.32823196875569</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>51.52446212036044</v>
+        <v>65.29682564614123</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>61.71135618045555</v>
+        <v>74.12218672421734</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>65.15166364653874</v>
+        <v>80.66143911667443</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>47.17865445867274</v>
+        <v>33.15183670927032</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>63.56823664887307</v>
+        <v>69.02226451724263</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>68.17684028996851</v>
+        <v>77.16416835032783</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>23.58812314098929</v>
+        <v>3.713185546603242</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.49893994993853</v>
+        <v>32.12269323150237</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.25137845855738</v>
+        <v>37.35313764115269</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.24802915656726</v>
+        <v>9.230329533227746</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.00827723180076</v>
+        <v>31.82973542322135</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>38.98676429829325</v>
+        <v>36.33755916213555</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>32.66138668489217</v>
+        <v>21.50252003146297</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.59098416676484</v>
+        <v>40.24803435476336</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>44.06354283947176</v>
+        <v>43.84911153364672</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.9172687781363</v>
+        <v>44.74874937567066</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>49.22026431997398</v>
+        <v>51.7977677959737</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>52.64600421714626</v>
+        <v>55.85567440008325</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>34.65352461299395</v>
+        <v>16.82662732435149</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>51.24355263628166</v>
+        <v>43.75090537291905</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>55.84881483840032</v>
+        <v>49.1743333448341</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.76055838591974</v>
+        <v>3.555287474266905</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.55069206989908</v>
+        <v>35.84717943858949</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.27455762593164</v>
+        <v>43.81152116702566</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.29535522006148</v>
+        <v>5.362333376184967</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.92518153020631</v>
+        <v>31.96770533195984</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.87201295200931</v>
+        <v>39.21763897738117</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>32.59533654762778</v>
+        <v>20.93062763163687</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.41720310825424</v>
+        <v>42.91833702568226</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>43.86293537447142</v>
+        <v>48.87723442607919</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>38.73857773572597</v>
+        <v>47.57619641015369</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.91904771566836</v>
+        <v>56.14396894168578</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>52.30905918835518</v>
+        <v>62.24181108823419</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.5373497635869</v>
+        <v>19.24649477145913</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>50.92367318211805</v>
+        <v>51.32116060199708</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.4826100448852</v>
+        <v>59.49091402715223</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.37277031591179</v>
+        <v>11.30404822764433</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45.16850308256213</v>
+        <v>46.57055741542408</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>47.92452090501882</v>
+        <v>54.33615547466859</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>37.67333200674083</v>
+        <v>13.83001568861693</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>48.30883112835966</v>
+        <v>43.56072100508867</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>51.29445922172644</v>
+        <v>50.72741115209536</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.36681587399764</v>
+        <v>31.99490085814237</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>54.19442342620646</v>
+        <v>56.84866372402533</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>56.67441380189382</v>
+        <v>62.67550672635612</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>51.52446212036044</v>
+        <v>65.84225326821948</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>61.71135618045555</v>
+        <v>74.56311017031246</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>65.15166364653874</v>
+        <v>81.01119918038619</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>47.17865445867274</v>
+        <v>33.70180134331095</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>63.56823664887307</v>
+        <v>69.44967948801256</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>68.17684028996851</v>
+        <v>77.48454066166104</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>19.63231648644676</v>
+        <v>-3.975722909251441</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.3633133623247</v>
+        <v>22.48342680663099</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.23204834856594</v>
+        <v>28.50826953500224</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>21.15331432094673</v>
+        <v>0.05352586080544697</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>31.71335009682701</v>
+        <v>20.56656065902791</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>34.81889671966812</v>
+        <v>25.76872675104727</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.4223907583958</v>
+        <v>11.47235279310737</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>37.18430432524422</v>
+        <v>28.40550568129232</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>39.76224772427</v>
+        <v>32.61707067377852</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.81823567791564</v>
+        <v>33.30105535206546</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.94858810856356</v>
+        <v>39.46140105183271</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.50957674108885</v>
+        <v>44.27971151239062</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.90121078732292</v>
+        <v>7.908355733314789</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.18877356284951</v>
+        <v>32.37181330438712</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>51.99422559911347</v>
+        <v>38.69023089387554</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.90569215180035</v>
+        <v>-2.448051462753622</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.51931814037385</v>
+        <v>28.00299410988558</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.3577892501136</v>
+        <v>36.88604942637097</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>21.30504370548861</v>
+        <v>-1.830364281242467</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.73824420652236</v>
+        <v>22.84595460991222</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.81028787931875</v>
+        <v>30.87390432183125</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.46372314175613</v>
+        <v>12.62231742511187</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.12091626615072</v>
+        <v>32.92475887578584</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>39.67046708563666</v>
+        <v>39.57440192476032</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.74275156558898</v>
+        <v>37.60672867277261</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>44.75387996305916</v>
+        <v>45.41936267142081</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.27760743526019</v>
+        <v>52.24937726457844</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.88053146249881</v>
+        <v>11.54245359706947</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.96994413433143</v>
+        <v>41.32493105340793</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>51.72635391839217</v>
+        <v>50.48306706726937</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.60059827385039</v>
+        <v>6.012230026390849</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.22306522619274</v>
+        <v>39.31643190687241</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.09912039399591</v>
+        <v>48.04825668551355</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.76689248107431</v>
+        <v>7.615349131197465</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>44.20964274683604</v>
+        <v>35.27919008243862</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.32641434860884</v>
+        <v>43.29785852238025</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>41.32423190568681</v>
+        <v>24.59785102597501</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>49.9904425565318</v>
+        <v>47.64207387690027</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.57931855675366</v>
+        <v>54.2086166567065</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.61317123751652</v>
+        <v>56.95031100744461</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>57.63501589144794</v>
+        <v>64.85572691545883</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>61.21404747069458</v>
+        <v>72.03175048227271</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.59655378066862</v>
+        <v>26.96254102811282</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>59.69402094960567</v>
+        <v>60.27038374323038</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>64.50864986440264</v>
+        <v>69.35151881656012</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.8431929868397</v>
+        <v>5.728655137270028</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.57100979987369</v>
+        <v>33.53381491084798</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>38.43067819169971</v>
+        <v>39.44402630645086</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>27.67723113913851</v>
+        <v>10.82324850861572</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38.23411636399179</v>
+        <v>32.79954096309139</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>41.32972667273562</v>
+        <v>37.88898242332407</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.0720161773968</v>
+        <v>22.92111798715079</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>43.83111466438187</v>
+        <v>41.12138805213517</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>46.40077627961628</v>
+        <v>45.24044543983228</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>41.32914740856677</v>
+        <v>45.94275372440458</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>51.45811232458883</v>
+        <v>52.66410116763567</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>55.00501185431408</v>
+        <v>57.38035461046371</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>37.23691934256665</v>
+        <v>19.22953764491972</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>53.52027507314668</v>
+        <v>45.3133500581483</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>58.31149704096819</v>
+        <v>51.50329048579337</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.08455738057938</v>
+        <v>8.446519097823963</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.69518086493898</v>
+        <v>40.32021487312851</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>38.52454404902402</v>
+        <v>48.99348182670046</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.79486599523326</v>
+        <v>10.14789510446678</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>38.22509815209671</v>
+        <v>36.36546515432198</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>41.28716983662879</v>
+        <v>44.1719705903705</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.07918123858458</v>
+        <v>25.33025290450152</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>43.73370285019696</v>
+        <v>46.97105232044055</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>46.27494218225465</v>
+        <v>53.43507030667023</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>41.22072100056673</v>
+        <v>51.51361230516355</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>51.23060439904216</v>
+        <v>59.90970579656804</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>54.74025119572354</v>
+        <v>66.59235783073223</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.18428519824146</v>
+        <v>24.16788526580756</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>53.26983639587993</v>
+        <v>55.66093711477677</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>58.0119444979203</v>
+        <v>64.57428139929323</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.43232016517378</v>
+        <v>14.9775719355186</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>47.05074383312424</v>
+        <v>49.61235546886761</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.91827614299115</v>
+        <v>58.14543275375</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.89421601786411</v>
+        <v>17.56826802644598</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>50.33286119017536</v>
+        <v>46.67170773876066</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>53.4402528706756</v>
+        <v>54.48144378471055</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>47.56651270551153</v>
+        <v>35.20766890294455</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>56.22917219733372</v>
+        <v>59.50360671235462</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>58.81023576422751</v>
+        <v>65.89490843719658</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>53.72313680511544</v>
+        <v>68.70351324458115</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>63.74273078350626</v>
+        <v>77.16181180357792</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>67.30823902659911</v>
+        <v>84.18254720216902</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49.5429674366832</v>
+        <v>37.55028032344671</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>65.63444453913871</v>
+        <v>72.4660638759685</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>70.43564000899056</v>
+        <v>81.3115954327159</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-37.02452500968194</v>
+        <v>5.891186069464894</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-26.99909100693395</v>
+        <v>34.07785738400722</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-24.15970381518714</v>
+        <v>39.01948740398352</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-37.56150129503932</v>
+        <v>11.5156353322933</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-26.6777180652108</v>
+        <v>34.11614054997619</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-23.60500621622313</v>
+        <v>38.32069371490512</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-31.35882265822048</v>
+        <v>23.64184177058816</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-22.32804397616538</v>
+        <v>42.44161359925386</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-19.77760466264718</v>
+        <v>45.7975173237112</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-23.47368436281545</v>
+        <v>46.58446748774627</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-13.04574253998653</v>
+        <v>53.67408684284574</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-9.515859317692261</v>
+        <v>57.59755272460035</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-25.89462755078345</v>
+        <v>19.09245783924786</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-9.110181333340066</v>
+        <v>45.90056342912095</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-4.355420375648933</v>
+        <v>50.9989387881276</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-36.13985760075195</v>
+        <v>9.009109563491318</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-26.23552943131791</v>
+        <v>41.12252079969244</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-23.42619009267665</v>
+        <v>48.57743045504445</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-36.77893194120441</v>
+        <v>11.26934193296384</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-26.02604352546561</v>
+        <v>37.92871468460698</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-22.9865946597475</v>
+        <v>44.62220258280061</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-30.67523721801253</v>
+        <v>26.66042641060085</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-21.75255598766795</v>
+        <v>48.75709433923853</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-19.23031067786204</v>
+        <v>54.25812549361378</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-22.92290580782326</v>
+        <v>53.01752642514924</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-12.61789978054645</v>
+        <v>61.67222580867387</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-9.125279214692341</v>
+        <v>67.47837236013112</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-25.30368028652211</v>
+        <v>25.1512587878533</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-8.723644558049671</v>
+        <v>57.16098427266939</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-4.017553310944052</v>
+        <v>64.73769972877497</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-23.08033750859165</v>
+        <v>15.71443426622131</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-13.17254533462385</v>
+        <v>50.60441657727132</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-10.32661661687938</v>
+        <v>57.85605794078734</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-22.89073695206224</v>
+        <v>18.60875466928557</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-12.13433489814615</v>
+        <v>48.18226458742224</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-9.051208675830225</v>
+        <v>54.79316020295677</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-16.36096240769014</v>
+        <v>36.49218771319359</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-7.434257156971825</v>
+        <v>61.26349362188566</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-4.873548231918406</v>
+        <v>66.6290535202581</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-8.628469369729686</v>
+        <v>69.80023564582764</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1.68093409078174</v>
+        <v>78.53903187891993</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>5.228549603259196</v>
+        <v>84.64667761593959</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-11.19755210691331</v>
+        <v>38.29441050025564</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>5.381424761146697</v>
+        <v>73.74696807294846</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>10.14399232129962</v>
+        <v>81.17711192062876</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-39.03622397143251</v>
+        <v>-5.137285050429622</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-29.01529556705921</v>
+        <v>20.99127451269874</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-26.14611962341677</v>
+        <v>26.533155838794</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-39.55431035018442</v>
+        <v>-0.628110237836939</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-28.67673730483605</v>
+        <v>19.66214299946462</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-25.56992270809015</v>
+        <v>24.52675773275862</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-33.36232799856842</v>
+        <v>10.74616982478585</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-24.33640658229999</v>
+        <v>27.548568827921</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-21.75773066557072</v>
+        <v>31.46197304395858</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-25.36023379327875</v>
+        <v>32.54075460670541</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-14.9421165953252</v>
+        <v>38.77184034738069</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-11.37735618446412</v>
+        <v>43.01599517871955</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-27.65858468861823</v>
+        <v>6.987512339507514</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-10.88386104992684</v>
+        <v>31.25911240495242</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-6.078866284282682</v>
+        <v>37.10942820481476</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-38.18448451606864</v>
+        <v>-1.910594236510587</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-28.28425220363745</v>
+        <v>28.11330731986462</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-25.44491078893003</v>
+        <v>36.47287503508888</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-38.80677840450248</v>
+        <v>-0.7331795557143401</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-28.0596425429235</v>
+        <v>23.61313652395366</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-24.98585048510238</v>
+        <v>31.30152104696581</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-32.71543700175707</v>
+        <v>13.92081036064545</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-23.79722713566514</v>
+        <v>34.00290760726423</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-21.24655032102672</v>
+        <v>40.35026256944693</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-24.84716820888825</v>
+        <v>38.95804627463187</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-14.5514858663992</v>
+        <v>46.77214479323066</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-11.02369409101721</v>
+        <v>53.00771682793351</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-27.10604026408843</v>
+        <v>12.77473196375454</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-10.53506744169215</v>
+        <v>42.23262076958234</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-5.778336876096986</v>
+        <v>50.91485955192</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-25.00593556439257</v>
+        <v>7.294136689095318</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-15.10470819927345</v>
+        <v>40.27021223846035</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-12.23167033539951</v>
+        <v>48.43505184282112</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-24.80148208711798</v>
+        <v>9.4815500736015</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-14.0534361305389</v>
+        <v>36.93267970666139</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-10.9392684705651</v>
+        <v>44.55197842980701</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-18.28071872442443</v>
+        <v>26.63597101052903</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-9.360710636261274</v>
+        <v>49.553596111514</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-6.774305953755558</v>
+        <v>55.77876648463352</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-10.43530619403113</v>
+        <v>58.7931370510901</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-0.1377519201147237</v>
+        <v>66.77481224863503</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>3.441744298655919</v>
+        <v>73.36372560982019</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-12.88600639830373</v>
+        <v>28.79212341747929</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>3.679990187608553</v>
+        <v>61.89768320785436</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>8.488304538724741</v>
+        <v>70.46427787950252</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-10.94854826905755</v>
+        <v>-4.402671922771678</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-1.228277977490706</v>
+        <v>23.20398792771918</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1.634847431493853</v>
+        <v>29.12313586616675</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-10.51311317293732</v>
+        <v>0.201373632241129</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.03681198891838733</v>
+        <v>21.89899729389584</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>3.135848269653344</v>
+        <v>27.0045571166299</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-3.92883694637132</v>
+        <v>12.01405653507528</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>4.824374661887575</v>
+        <v>29.9679257432253</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>7.396785950465258</v>
+        <v>34.09317649410814</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>3.244173162945401</v>
+        <v>34.96389461183165</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.36131528069863</v>
+        <v>41.59306186827406</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.91219905384184</v>
+        <v>46.31763168635634</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.2748920374280885</v>
+        <v>8.423962850916634</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.54629165912029</v>
+        <v>34.23372598964418</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>21.34308590034571</v>
+        <v>40.42931632430715</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-10.31148603128361</v>
+        <v>-2.982508942861266</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-0.7080618038543065</v>
+        <v>28.67815899251459</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2.124704653165999</v>
+        <v>37.39789705455266</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-9.984890145018156</v>
+        <v>-1.865336027913404</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.4387521264123393</v>
+        <v>24.05330577215476</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>3.504198371874239</v>
+        <v>31.92207684568007</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-3.50248947606714</v>
+        <v>13.04607171568343</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>5.146457991617162</v>
+        <v>34.4211557277249</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>7.690399896144193</v>
+        <v>40.92975891977439</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>3.544791543848994</v>
+        <v>39.22520817982111</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.5433040990001</v>
+        <v>47.5169581306268</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.05683146751715</v>
+        <v>54.2462843519321</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.6189731340625713</v>
+        <v>12.07870334527041</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>16.69314128859373</v>
+        <v>43.2805982700456</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>21.44076131508007</v>
+        <v>52.24738212817547</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1.912987168332471</v>
+        <v>4.508326126532303</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.52253146153951</v>
+        <v>38.99943571670586</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>14.3936037038252</v>
+        <v>47.58696143049274</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>3.024802891972989</v>
+        <v>6.527181607536697</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>13.45499420545902</v>
+        <v>35.4080440664395</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16.56591395592109</v>
+        <v>43.28600013828531</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.914592376616966</v>
+        <v>23.96253977434766</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>18.57010413993458</v>
+        <v>48.05972017534025</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>21.15401969092377</v>
+        <v>54.50202277285356</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>16.95565285307637</v>
+        <v>57.48500218620174</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.96197344379016</v>
+        <v>65.86075547169068</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>30.53176924642714</v>
+        <v>72.94114083621197</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.85982742380804</v>
+        <v>26.4622678199453</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.93713263976773</v>
+        <v>61.16880614898417</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>34.74397576352851</v>
+        <v>70.0766308296857</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-9.680359603089542</v>
+        <v>11.4072255188273</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.1697134518367989</v>
+        <v>40.33672526634066</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>2.938670885788227</v>
+        <v>45.5645962098078</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-9.108668110302276</v>
+        <v>18.10334716944369</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1.584328424364777</v>
+        <v>41.33308961372549</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>4.582067563655421</v>
+        <v>45.88086713731574</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-2.440014502925678</v>
+        <v>30.77551049575988</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>6.432609194720442</v>
+        <v>50.1264382240676</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>8.920689984468694</v>
+        <v>53.76658896809538</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>4.72814399976766</v>
+        <v>55.03323603296576</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>14.97277598136245</v>
+        <v>62.38421097578507</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>18.41546446550813</v>
+        <v>66.34063056832696</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>1.621369225309707</v>
+        <v>26.8598319800165</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.11241625305625</v>
+        <v>54.43931613550956</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.75042465137161</v>
+        <v>59.91998928057185</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-9.111198674716562</v>
+        <v>10.26981940626756</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.6200112676311562</v>
+        <v>43.08709567023892</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.359949045876817</v>
+        <v>50.90583435793745</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-8.652478554245931</v>
+        <v>13.29948991673098</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1.912046998154374</v>
+        <v>40.55640671410985</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>4.877662498478486</v>
+        <v>47.67478496346442</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-2.087541764982063</v>
+        <v>29.08913165170284</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>6.678974854193633</v>
+        <v>51.70444430234846</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>9.139821783317103</v>
+        <v>57.5597666096218</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>4.957357442531702</v>
+        <v>56.67290090324948</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>15.08129301935122</v>
+        <v>65.57464315425277</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>18.48803059067961</v>
+        <v>71.45072605553543</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1.898707530767723</v>
+        <v>28.17876060523939</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>18.18917028146153</v>
+        <v>60.92918465265922</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>22.78019506450433</v>
+        <v>68.96771253543552</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>2.96668545659535</v>
+        <v>16.4316151443265</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>12.69773333500112</v>
+        <v>52.04968490924957</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>15.47142249809269</v>
+        <v>59.66306620460505</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>4.206133693032037</v>
+        <v>20.18338717682533</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>14.77029314669282</v>
+        <v>50.37950258027477</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>17.77629101150669</v>
+        <v>57.41511084935527</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.16883940594416</v>
+        <v>38.40197541575029</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>19.93613437275648</v>
+        <v>63.71337563155677</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.43265340740388</v>
+        <v>69.4353610290751</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>18.20768195639418</v>
+        <v>72.98038893032883</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.33223844088074</v>
+        <v>81.98019523649297</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.79019158501787</v>
+        <v>88.18011665482884</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>14.9856357082424</v>
+        <v>40.8204688337781</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.26905504177154</v>
+        <v>77.04333456361439</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>35.91186752199768</v>
+        <v>84.94219601392534</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-17.26989587987251</v>
+        <v>-7.051860848368793</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-7.630570521734228</v>
+        <v>18.29290326891683</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-4.904620583172658</v>
+        <v>23.94057667172117</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-17.17601747225306</v>
+        <v>-3.335859779292267</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-6.70928624859711</v>
+        <v>16.38978367332053</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-3.759453804891578</v>
+        <v>21.35729795132807</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-10.86400947435209</v>
+        <v>7.620901484470743</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-2.177791203543819</v>
+        <v>23.8937256541102</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>0.2710888902545179</v>
+        <v>27.91436978109609</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-3.705884489418807</v>
+        <v>27.93314603774244</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>6.301759633522806</v>
+        <v>34.0161154966168</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>9.686730457448043</v>
+        <v>38.39779660558133</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-6.591512355820441</v>
+        <v>2.788384763682831</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>9.542859560912895</v>
+        <v>26.42000218741067</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>14.10137445408358</v>
+        <v>32.36486495685978</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-16.6770173748593</v>
+        <v>-5.980541309480468</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-7.154678579099667</v>
+        <v>23.06165558415749</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-4.456761174275499</v>
+        <v>31.62116570659737</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-16.68933981611713</v>
+        <v>-5.649378881151595</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-6.349027591110698</v>
+        <v>17.91865650346567</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-3.430230605375456</v>
+        <v>25.83866236370482</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-10.47938790997165</v>
+        <v>8.533155515977715</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-1.897576417371837</v>
+        <v>27.90801135462316</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.5249966021196144</v>
+        <v>34.46600241288222</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-3.443287722974773</v>
+        <v>32.03951823491582</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>6.445838582667868</v>
+        <v>39.62712937271345</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>9.795629739897301</v>
+        <v>46.09675247571402</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-6.282170184658057</v>
+        <v>6.306753131432298</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>9.654666736538644</v>
+        <v>34.86552589035991</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>14.16780287084643</v>
+        <v>43.7988159390214</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-4.343243328718685</v>
+        <v>3.079087353341524</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>5.183095330797286</v>
+        <v>35.0187862763768</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>7.911492537689767</v>
+        <v>43.41974211014349</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-3.577931994749477</v>
+        <v>4.339046319323568</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>6.766204089094259</v>
+        <v>30.95246837960757</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>9.721823652497569</v>
+        <v>38.82663458794978</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>3.041063924435782</v>
+        <v>21.00942449844725</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>11.62701825130696</v>
+        <v>43.17314527590505</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>14.08218514020859</v>
+        <v>49.63240777400291</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>10.07009816240781</v>
+        <v>51.53252908569446</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.96393705165657</v>
+        <v>59.30476315041317</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>23.36306984200865</v>
+        <v>66.18378972752727</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>7.064513751481748</v>
+        <v>22.12875382623672</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.00213235576773</v>
+        <v>54.2563281876815</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.56212046462024</v>
+        <v>63.10926879236759</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.891796559262204</v>
+        <v>2.239540304567246</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>12.63060686454573</v>
+        <v>29.63026636821515</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>15.34399515535769</v>
+        <v>34.57743576738435</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>3.633481181598953</v>
+        <v>6.905685574617866</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>14.2079785646674</v>
+        <v>28.67131705324782</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.14320947049049</v>
+        <v>32.86607890614542</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.43760777915163</v>
+        <v>18.6246402523713</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.21309261477612</v>
+        <v>36.65092525886435</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.64984946028947</v>
+        <v>39.99475822433979</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>17.07754548718751</v>
+        <v>40.39623556695098</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.20015638618662</v>
+        <v>47.14224868605611</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.57699209683776</v>
+        <v>51.12356486618827</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.49819885147069</v>
+        <v>13.36556747878567</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.80008313868013</v>
+        <v>39.28619748373366</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.33852310830714</v>
+        <v>44.3495940822269</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>3.301068160478152</v>
+        <v>4.905203251973177</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>12.92118805178766</v>
+        <v>36.12234473941574</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>15.60626379408612</v>
+        <v>43.73026399059821</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>3.929822567713629</v>
+        <v>6.121099081840651</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>14.37605003063937</v>
+        <v>31.82749180616602</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>17.27991493806734</v>
+        <v>38.69346568502129</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.62767046894672</v>
+        <v>21.19751980037406</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.29720807874354</v>
+        <v>42.41660644364941</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.70738724025231</v>
+        <v>48.05683572455175</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>17.1511216268026</v>
+        <v>46.38534459030514</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.15328689015086</v>
+        <v>54.62709670352858</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.49464422735703</v>
+        <v>60.60879517619997</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>13.62631518727168</v>
+        <v>18.91879956114425</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.72782926924308</v>
+        <v>49.9024960522346</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.22035761948598</v>
+        <v>57.64661792173645</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.31746437116742</v>
+        <v>12.83870143463757</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.94493078634144</v>
+        <v>46.97265362200937</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>27.6627106778381</v>
+        <v>54.386005200033</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>16.72397255104465</v>
+        <v>14.6854549765053</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.17769789575227</v>
+        <v>43.45682368928232</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.12098655361063</v>
+        <v>50.23896312980575</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>23.82457537092645</v>
+        <v>32.36484125217869</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.5013441808757</v>
+        <v>56.39598456505189</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>34.9462698141708</v>
+        <v>61.90340823810867</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>30.35080569176892</v>
+        <v>64.6108860131574</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>40.36111345944403</v>
+        <v>72.99709983193161</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>43.75358985601899</v>
+        <v>79.30999356891139</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.66702447507784</v>
+        <v>33.41568017584051</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>42.77490428174807</v>
+        <v>67.99992457480822</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>47.31814505950943</v>
+        <v>75.60517589221934</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>21.04097643155981</v>
+        <v>-6.605792395818955</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>30.68806329583568</v>
+        <v>19.16910874919486</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>33.36827121768212</v>
+        <v>24.33109353194072</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>22.40998196933501</v>
+        <v>-2.804962365433429</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>32.88361690557782</v>
+        <v>17.20869987266083</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>35.78418801446885</v>
+        <v>21.66334927308609</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.54806221612898</v>
+        <v>8.281846881611504</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.24031262704246</v>
+        <v>24.8135241241491</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>40.64825988501244</v>
+        <v>28.37555457848844</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.69859282234142</v>
+        <v>29.01175002072416</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>45.72507165130392</v>
+        <v>35.1200612667576</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>49.06548522007373</v>
+        <v>39.14092880003699</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.64628449700336</v>
+        <v>3.556902937940617</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.79279800786864</v>
+        <v>27.53957950488876</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>52.27565887227276</v>
+        <v>32.88388443203619</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>21.20099796947574</v>
+        <v>-7.302509811272831</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>30.73036270702316</v>
+        <v>22.14412344442395</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>33.3829842522446</v>
+        <v>30.08305243787005</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.44946877628063</v>
+        <v>-7.053480738553564</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>32.79589578281067</v>
+        <v>16.74905875101739</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.66589011424969</v>
+        <v>24.00845347346208</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.47638062659396</v>
+        <v>7.225715680694321</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.06355807883413</v>
+        <v>26.8136934472559</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>40.44559297584569</v>
+        <v>32.78752695700181</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.51719806721488</v>
+        <v>31.3058277384314</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>45.42419323204344</v>
+        <v>38.86686666074014</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>48.7299992291321</v>
+        <v>44.92379647554936</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.52597858619369</v>
+        <v>5.422645098768793</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>47.47373887135053</v>
+        <v>34.29222610772391</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>51.91188015801342</v>
+        <v>42.45568455387813</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>32.83204314232775</v>
+        <v>2.825437806299337</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.36822006117617</v>
+        <v>35.28596616073675</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>45.05076329498183</v>
+        <v>42.999574839544</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.8399382124181</v>
+        <v>3.879037271935054</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>45.19336808872031</v>
+        <v>30.85466278482235</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>48.0996593293671</v>
+        <v>37.99799084672613</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>42.2604402536687</v>
+        <v>20.78443943555713</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.85434715610657</v>
+        <v>43.27325224686628</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>53.26848387495053</v>
+        <v>49.08826356791515</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.31064429322392</v>
+        <v>51.91755768791819</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>58.22516390421357</v>
+        <v>59.6648336170604</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>61.57850028932375</v>
+        <v>66.06543531897078</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>44.16807220406709</v>
+        <v>22.19496040382974</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>60.12186127510678</v>
+        <v>54.77156768549604</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>64.606218133954</v>
+        <v>62.77170051567551</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.302837465811926</v>
+        <v>-13.06197957439943</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.73061334228977</v>
+        <v>11.31051427519538</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.35890317022078</v>
+        <v>16.21654923464536</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.753102582357421</v>
+        <v>-10.27461747502742</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.98950874460159</v>
+        <v>8.493853736761615</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.83296248500417</v>
+        <v>12.6737812992425</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.262531822669189</v>
+        <v>-0.01957076039471417</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.75804606471273</v>
+        <v>15.44180139745801</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.11870428073061</v>
+        <v>18.77453335502378</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.74152721644195</v>
+        <v>19.16845207276205</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.53859978113857</v>
+        <v>24.83249832127699</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.81496261932755</v>
+        <v>28.79152963707329</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.36869146538399</v>
+        <v>-4.920041544339899</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.14744997161885</v>
+        <v>17.61769318607197</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>31.54173130642966</v>
+        <v>22.64825082778761</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.683802125158252</v>
+        <v>-12.33285533721444</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>10.99636773859761</v>
+        <v>15.61204631114418</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>13.59750329790029</v>
+        <v>23.22244436052222</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.026052688319204</v>
+        <v>-12.9036382089415</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.13796654331533</v>
+        <v>9.543364460488256</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.95132038413829</v>
+        <v>16.45966469649007</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.431537682750353</v>
+        <v>0.534229034612224</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.82422832407346</v>
+        <v>18.96353572510235</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19.15938195169664</v>
+        <v>24.64792462928012</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.79788726610157</v>
+        <v>23.04936681618769</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.47807915273667</v>
+        <v>30.12125729225244</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.72028260337012</v>
+        <v>36.07822292869447</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>11.4783338304095</v>
+        <v>-1.498585872255838</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.06254471055979</v>
+        <v>25.78386275100756</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.41279673593107</v>
+        <v>33.57034573760892</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.685771771886</v>
+        <v>-1.577724237876868</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.00724118282698</v>
+        <v>29.33240853891746</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.63847936854381</v>
+        <v>36.73536263297727</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>14.79694718761994</v>
+        <v>-1.40296428989841</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.91806824641962</v>
+        <v>24.16796762540687</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>27.7679301789201</v>
+        <v>30.98076268888932</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>21.60447444847885</v>
+        <v>14.672044497862</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.0056816729083</v>
+        <v>35.95677189432132</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>32.37306430315383</v>
+        <v>41.49423653449718</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.96853720693301</v>
+        <v>44.06830760474803</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>37.65831330103681</v>
+        <v>51.32944737286662</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>40.94838454956025</v>
+        <v>57.61758230690195</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.48309436067769</v>
+        <v>15.74204013402064</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>40.07713826076873</v>
+        <v>46.66736086606409</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>44.47408736175506</v>
+        <v>54.30256355850683</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-10.40008938376607</v>
+        <v>-0.2614944709351406</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-0.6864915395648552</v>
+        <v>26.80394006356367</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>2.188776064047133</v>
+        <v>32.97355480680973</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-9.897419147851423</v>
+        <v>4.089178175831236</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>0.6446924279088364</v>
+        <v>25.14986589450531</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>3.757675471672236</v>
+        <v>30.52508135971156</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-3.286680015253395</v>
+        <v>16.02951036910974</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>5.460134826653544</v>
+        <v>33.42887279591856</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>8.044100825481635</v>
+        <v>37.78629250309034</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>3.904509958297766</v>
+        <v>38.53659477617678</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>14.01229950205233</v>
+        <v>44.91560192339603</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>17.57688895821435</v>
+        <v>49.7399953015058</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>0.9501160585836601</v>
+        <v>12.42146279379572</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>17.20968241388162</v>
+        <v>37.52875113864938</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.02683019978646</v>
+        <v>44.03624858953838</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-9.796865553572587</v>
+        <v>-0.05090867834938706</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-0.199866809439996</v>
+        <v>31.03232997463748</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>2.64515259638295</v>
+        <v>40.10718541606065</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-9.404750681375361</v>
+        <v>0.7278724086332424</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.011350420911853</v>
+        <v>25.98446783121842</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>4.090868178771743</v>
+        <v>34.23721283833641</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-2.897061475078658</v>
+        <v>15.7230616252206</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>5.745719184819876</v>
+        <v>36.51599045443203</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>8.301316934230847</v>
+        <v>43.35546643227659</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.168359411624991</v>
+        <v>41.39867512694057</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>14.15780437846314</v>
+        <v>49.44598214463095</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>17.68518987484825</v>
+        <v>56.29988558575998</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.257594820507357</v>
+        <v>14.63805446842031</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>17.32032288518715</v>
+        <v>45.10659610486172</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.08850707847872</v>
+        <v>54.50457370882152</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>2.432751803982043</v>
+        <v>8.236018443652245</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>12.03451155441141</v>
+        <v>42.20542894183115</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>14.91650929657941</v>
+        <v>51.12541461343057</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>3.606808450410412</v>
+        <v>10.07542339504986</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>14.02801916193012</v>
+        <v>38.35362433492085</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>17.15149840698938</v>
+        <v>46.59484302840879</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.52223564615007</v>
+        <v>27.57971238875098</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.17035302062799</v>
+        <v>51.14562710338823</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>21.76467109828979</v>
+        <v>57.9001461227208</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>17.58110737333682</v>
+        <v>60.6985096170695</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.57699768344454</v>
+        <v>68.85112643704147</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>31.15917828999843</v>
+        <v>76.07207406992407</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>14.50037260906077</v>
+        <v>30.00358750380675</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.56406704325704</v>
+        <v>64.03861612388455</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.38923613529239</v>
+        <v>73.36218199046579</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.25184686281924</v>
+        <v>3.853129188037762</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.93956782364406</v>
+        <v>30.51813103048174</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.64004629675065</v>
+        <v>35.82716744301082</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.66422582930067</v>
+        <v>8.661600833812788</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.18334329971573</v>
+        <v>29.72758927456912</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.10512247119344</v>
+        <v>34.32846475088799</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>27.79299361319551</v>
+        <v>20.21555834634117</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.52291370265346</v>
+        <v>37.63765018851235</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>38.94862475229486</v>
+        <v>41.33418535651967</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>34.0219961312606</v>
+        <v>41.57710992791833</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>44.08808316172322</v>
+        <v>48.08694217041058</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>47.44559011491059</v>
+        <v>52.27364921435496</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.98274081072174</v>
+        <v>15.21569942302961</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>46.19831093263798</v>
+        <v>40.35760918931585</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>50.71388398171274</v>
+        <v>45.88035860802799</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.45811364091142</v>
+        <v>2.575032711377897</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.02772501069012</v>
+        <v>32.91647571450359</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.70034695564933</v>
+        <v>41.01345951662859</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>20.75049246674129</v>
+        <v>3.7709013590928</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.14197285110797</v>
+        <v>28.6355868021885</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.03289418829154</v>
+        <v>36.05164920408035</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.76880477129562</v>
+        <v>18.49591117059907</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.39329453740217</v>
+        <v>38.98632166875428</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.79285736441702</v>
+        <v>45.10150953948155</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.88647216093242</v>
+        <v>43.12016987661232</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.83271683610134</v>
+        <v>51.08438042448837</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.15526008685647</v>
+        <v>57.33499593184422</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.90719181105985</v>
+        <v>16.33342490622614</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>45.92337454375549</v>
+        <v>46.36720525572073</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>50.39378601212293</v>
+        <v>54.7295103152946</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.98794921367626</v>
+        <v>10.33073717609771</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.56364612217698</v>
+        <v>43.55739311569081</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.2669712382647</v>
+        <v>51.46982724962865</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.03154218795268</v>
+        <v>12.24406371865559</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.42912591253567</v>
+        <v>40.13981406924348</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>46.35718757906798</v>
+        <v>47.47780055178502</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.44082138881004</v>
+        <v>29.48312984859881</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.07136600576543</v>
+        <v>52.75483288456789</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>51.50373991957407</v>
+        <v>58.74446729273366</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>46.57113128417764</v>
+        <v>61.10481668130396</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>56.52429720005095</v>
+        <v>69.23235138098555</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>59.895904130473</v>
+        <v>75.85863133102669</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>42.44815620223922</v>
+        <v>30.64613456964366</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>58.46867903861578</v>
+        <v>64.23466746963021</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>62.98657997541724</v>
+        <v>72.47605334070474</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>47.22386733718183</v>
+        <v>8.874836935825599</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>57.18716132387815</v>
+        <v>37.69536691978309</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>60.08778970383125</v>
+        <v>43.78231377671024</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.95972023510656</v>
+        <v>14.72519376488311</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>60.77185354720125</v>
+        <v>37.61503889140319</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>63.91225318754245</v>
+        <v>42.90283437335523</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>58.01527374556101</v>
+        <v>27.36852907442728</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>66.98639868064198</v>
+        <v>46.35557102161503</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>69.59322683907158</v>
+        <v>50.63796276242468</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>63.86437784990248</v>
+        <v>51.52032846495355</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>74.23931015024365</v>
+        <v>58.61062856438418</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>77.83901295918865</v>
+        <v>63.35447935936865</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>58.9979623435869</v>
+        <v>23.87409099342058</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>75.67550600316328</v>
+        <v>51.04101626165881</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>80.53544469255816</v>
+        <v>57.45325927259698</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>47.21423559606995</v>
+        <v>8.902286598294985</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>57.05729621602859</v>
+        <v>41.82265351500645</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>59.92734179879341</v>
+        <v>50.73077840726134</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>49.81377738541562</v>
+        <v>11.14585987176721</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>60.49597503638447</v>
+        <v>38.31150693985694</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>63.60252032967137</v>
+        <v>46.37741062854638</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>57.75080589549601</v>
+        <v>26.82348447649346</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>66.6146322515838</v>
+        <v>49.27740412219779</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>69.19277041577347</v>
+        <v>55.95658838690129</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>63.48842580931971</v>
+        <v>54.1788445278733</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>73.74112688312036</v>
+        <v>62.96508908251386</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>77.30321055948596</v>
+        <v>69.72046822205721</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>58.68727877136962</v>
+        <v>25.96326315219377</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>75.16190649168183</v>
+        <v>58.59267357888192</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>79.97227174648134</v>
+        <v>67.78787274097286</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>58.24769596222713</v>
+        <v>15.27484953591061</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>68.09797703744935</v>
+        <v>50.99008405865516</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>71.00566226513222</v>
+        <v>59.74390563363367</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>61.59344673563653</v>
+        <v>18.43311672288683</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>72.2834365315305</v>
+        <v>48.51986343592245</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>75.43476891028828</v>
+        <v>56.57593873087443</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>69.91298750003139</v>
+        <v>36.56932932590764</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>78.78445634500692</v>
+        <v>61.71108274347718</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>81.40199395082068</v>
+        <v>68.30682742154548</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>75.67855313864609</v>
+        <v>71.32265104867531</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>85.94036304172572</v>
+        <v>80.17441831168594</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>89.55782615621156</v>
+        <v>87.27999698631483</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>70.74753095925891</v>
+        <v>39.25955717450557</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>87.227042060093</v>
+        <v>75.35341980276434</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>92.09560414445755</v>
+        <v>84.46986875221572</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>136.6725959651808</v>
+        <v>6.091844487915701</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>147.7271417385647</v>
+        <v>32.98762676880378</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>150.9121427091929</v>
+        <v>39.02344661000294</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>142.939499020518</v>
+        <v>11.21601994629759</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>154.9320668226356</v>
+        <v>32.30188178909313</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>158.3805308419074</v>
+        <v>37.53492969787105</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>153.8512751029209</v>
+        <v>22.84345888062022</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>163.8024430797567</v>
+        <v>40.28491726973067</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>166.6652980468321</v>
+        <v>44.52941438631828</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>157.9422157979939</v>
+        <v>45.11747822062949</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>169.4583437730908</v>
+        <v>51.46414996849862</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>173.4183098170757</v>
+        <v>56.25320062207824</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>149.6557396481789</v>
+        <v>19.26906421420049</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>168.1573050450686</v>
+        <v>44.32613991929257</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>173.4920758159202</v>
+        <v>50.69042235599016</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>135.6423560503301</v>
+        <v>7.375787263752095</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>146.5621022324798</v>
+        <v>38.22278085008829</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>149.7136649428524</v>
+        <v>47.03176336993343</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>141.7225369701929</v>
+        <v>9.114302750561905</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>153.5694686625401</v>
+        <v>34.32677960646951</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>156.9808653266514</v>
+        <v>42.2852991027731</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>152.4804646380151</v>
+        <v>23.66549999981309</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>162.3113566320397</v>
+        <v>44.44799021861141</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>165.1428126950534</v>
+        <v>51.04582157774173</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>156.474894786161</v>
+        <v>48.94555436480854</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>167.8538013198778</v>
+        <v>56.92699696339783</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>171.7725115132811</v>
+        <v>63.66953266325082</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>148.294189332748</v>
+        <v>22.45854780304137</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>166.5682004510502</v>
+        <v>52.78187543978275</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>171.8486656995478</v>
+        <v>61.8809889785923</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>146.0151351477985</v>
+        <v>14.01217330065908</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>156.9523759256053</v>
+        <v>47.58153056666573</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>160.1447290965771</v>
+        <v>56.24959787136501</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>152.8598998254209</v>
+        <v>16.68862640482911</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>164.7257878859756</v>
+        <v>44.7469207418862</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>168.1859295015555</v>
+        <v>52.70669478250795</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>164.0066763536465</v>
+        <v>33.65289786525668</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>173.8546022748367</v>
+        <v>57.05285623503434</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>176.7288885345774</v>
+        <v>63.57666028853734</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>168.0856763838714</v>
+        <v>66.19311584948274</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>179.4847473560433</v>
+        <v>74.23204774416156</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>183.4634978237678</v>
+        <v>81.31149950720489</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>159.8185440220036</v>
+        <v>35.91389396289422</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>178.1144543877239</v>
+        <v>69.60956168520907</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>183.4583870623524</v>
+        <v>78.6414182993733</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>42.869431973761</v>
+        <v>3.350339634101811</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>52.94713409234022</v>
+        <v>31.71320069579586</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>55.80682544752514</v>
+        <v>37.52975713347938</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>45.34840653421377</v>
+        <v>8.580212674027884</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>56.28834188812694</v>
+        <v>31.11813256901779</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>59.38299892529356</v>
+        <v>36.19045399346962</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>53.35131692670997</v>
+        <v>20.9514298080072</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.42979710941568</v>
+        <v>39.60845581258579</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>64.99897868370887</v>
+        <v>43.70755603065474</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>59.24641588549923</v>
+        <v>44.03906452990617</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>69.7251366160592</v>
+        <v>51.0446014967649</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>73.27702299349242</v>
+        <v>55.55116830096847</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>54.3133222852093</v>
+        <v>16.0920178113249</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>71.18155004921479</v>
+        <v>42.92162349849914</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>75.9666447729989</v>
+        <v>49.02175280661586</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>42.84755908015487</v>
+        <v>1.92915568440986</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>52.80267857129517</v>
+        <v>34.21359734217062</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>55.6326743922307</v>
+        <v>42.89085929862054</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.1914179327588</v>
+        <v>3.390676272633129</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>55.99888661165129</v>
+        <v>29.9964604285363</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>59.06065352081264</v>
+        <v>37.93345040295888</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>53.07417437086553</v>
+        <v>18.95554367774952</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>62.04324695029484</v>
+        <v>40.90430125396132</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>64.58455907913508</v>
+        <v>47.46684642127448</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>58.85854230609829</v>
+        <v>45.32704387857493</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>69.21279757252877</v>
+        <v>53.90654783867647</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>72.72768141417303</v>
+        <v>60.50020878131922</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>53.99417022413634</v>
+        <v>16.90981062986831</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>70.65546566205252</v>
+        <v>48.95358883666409</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>75.39240511354866</v>
+        <v>57.93837753719394</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>54.2149007274261</v>
+        <v>8.908918807234162</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>64.17858293957889</v>
+        <v>44.09702637609774</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>67.04268456788192</v>
+        <v>52.6225631946162</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>57.31873574892796</v>
+        <v>11.19916685270955</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>68.13512289057127</v>
+        <v>40.84856787007608</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>71.23790524608194</v>
+        <v>48.75658399709388</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>65.59501524277631</v>
+        <v>29.29236626351809</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>74.57259149996761</v>
+        <v>54.03920852768509</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>77.15007049341347</v>
+        <v>60.51144979966278</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>71.40778562495841</v>
+        <v>62.99462391272034</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>81.77206088796763</v>
+        <v>71.7082643267935</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>85.33978764875391</v>
+        <v>78.69733192642012</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>66.41165877038566</v>
+        <v>30.80736579994563</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>83.08077144533571</v>
+        <v>66.43985965156675</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>87.87050097863067</v>
+        <v>75.34611965410166</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.76149589784283</v>
+        <v>-3.419941247375188</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.33244164757267</v>
+        <v>22.419637741982</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.17212932925479</v>
+        <v>28.29220899436155</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.28899111201105</v>
+        <v>0.5711371739693973</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.67575830478856</v>
+        <v>20.6961116554859</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.75035135355327</v>
+        <v>25.80613676428197</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.43471480688021</v>
+        <v>11.88242882751103</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>37.0530379120493</v>
+        <v>28.51045444566792</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.60547558285988</v>
+        <v>32.64849382584308</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.7605525343749</v>
+        <v>33.05166919353531</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>44.71943775009545</v>
+        <v>39.06518963774755</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>48.24504031648392</v>
+        <v>43.64973659277912</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.9295523395588</v>
+        <v>7.856065465127518</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>46.94929845209738</v>
+        <v>31.83825358723231</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>51.70475766307813</v>
+        <v>38.02087756186678</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.03088638606079</v>
+        <v>-0.9502706930622153</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.48654630756418</v>
+        <v>28.84661327943034</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>32.29649227249411</v>
+        <v>37.59901912005012</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>21.43844909479856</v>
+        <v>-0.1869293049341998</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.70064143195459</v>
+        <v>24.08006302105665</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>34.74232114221974</v>
+        <v>32.06181831700618</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.47563656512408</v>
+        <v>14.18164032240834</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.99109856033292</v>
+        <v>34.16400238670547</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.5156408178222</v>
+        <v>40.77926014732761</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.68646831049449</v>
+        <v>38.48319271814633</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.52830704989937</v>
+        <v>46.15611718467378</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>48.01726031204439</v>
+        <v>52.74078150541865</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.90909752693327</v>
+        <v>12.55609250338444</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.73424542749764</v>
+        <v>41.81099888507252</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>51.4415352962427</v>
+        <v>50.8888787883448</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.53224006069397</v>
+        <v>7.079526497311964</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.99511960936164</v>
+        <v>39.67106479054768</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.8408718332655</v>
+        <v>48.29811461159807</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.69407068063069</v>
+        <v>8.854587726972483</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.96409582932269</v>
+        <v>36.05050305656878</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.04841590362341</v>
+        <v>44.04513798781562</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.1215728721893</v>
+        <v>25.61334936237812</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>49.6445950196831</v>
+        <v>48.28111302811824</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.20669554258149</v>
+        <v>54.83675400999583</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>47.34107469957877</v>
+        <v>57.04141920155514</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>57.19207431403117</v>
+        <v>64.84405290016343</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>60.73413517440289</v>
+        <v>71.8082847603909</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>43.4133534810239</v>
+        <v>27.38589685693529</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>59.24404868311054</v>
+        <v>60.09878202234712</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>64.0065672808059</v>
+        <v>69.14019982402596</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>137.1800829025165</v>
+        <v>3.120788222555237</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>148.2153057070749</v>
+        <v>29.62125252874337</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>151.3981683524047</v>
+        <v>35.75011767567348</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>143.4698989719249</v>
+        <v>7.941743190054986</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>155.4414347987912</v>
+        <v>28.63499833112592</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>158.8876816663044</v>
+        <v>33.96937373051468</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>154.3803052674474</v>
+        <v>19.39974436296331</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>164.3140152456753</v>
+        <v>36.50445841619219</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>167.1750356500712</v>
+        <v>40.838300536966</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>158.4551984941542</v>
+        <v>41.4357617775919</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>169.9510299206555</v>
+        <v>47.66535082822212</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>173.9078131437745</v>
+        <v>52.50026780598387</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>150.1691414749009</v>
+        <v>15.99548546972724</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>168.6383893666934</v>
+        <v>40.61664385270699</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>173.9695591777264</v>
+        <v>47.09200252115808</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>136.1408348000837</v>
+        <v>4.194459212543592</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>147.04153002064</v>
+        <v>34.63153294413564</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>150.1910132621036</v>
+        <v>43.57826580596611</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>142.2437282100488</v>
+        <v>5.658738240813836</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>154.0699221567257</v>
+        <v>30.46787198184219</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>157.4791678279524</v>
+        <v>38.578203065706</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>153.0002318059665</v>
+        <v>20.01720141929438</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>162.8139099130708</v>
+        <v>40.45339219797515</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>165.6435867042848</v>
+        <v>47.18406664991839</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>156.9788783458453</v>
+        <v>45.03743786806356</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>168.3377648394991</v>
+        <v>52.90526352214491</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>172.2533733448046</v>
+        <v>59.70979201045058</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>148.7985735704646</v>
+        <v>18.92590362061084</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>167.0407218012654</v>
+        <v>48.79791373132795</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>172.3176867777361</v>
+        <v>58.06353953138266</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>146.4748695636667</v>
+        <v>11.14473926312206</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>157.3927333550268</v>
+        <v>44.30577658617584</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>160.5827958665994</v>
+        <v>53.11676530937726</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>153.3395415704225</v>
+        <v>13.58575282976377</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>165.1843438596024</v>
+        <v>41.24279863077846</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>168.6420884981576</v>
+        <v>49.3604116663489</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>164.4837862816406</v>
+        <v>30.34756159603593</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>174.3142036464187</v>
+        <v>53.40176921318405</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>177.1865036712672</v>
+        <v>60.06380688762221</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>168.5473067175803</v>
+        <v>62.61285513848844</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>179.9260491088241</v>
+        <v>70.54528739673626</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>183.9014470608805</v>
+        <v>77.69432461878205</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>160.2814947002444</v>
+        <v>32.70925578321123</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>178.5450075454201</v>
+        <v>65.95320433782577</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>183.8850897618924</v>
+        <v>75.16061512535022</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>20.99313058321131</v>
+        <v>7.792566226698266</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.75798575803295</v>
+        <v>35.09137596240806</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.58051298397601</v>
+        <v>40.77413844785982</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>22.64476296452779</v>
+        <v>13.64055781972989</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>33.24170481583744</v>
+        <v>35.08693474247701</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.298054512633</v>
+        <v>40.06665584109213</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.95344008651431</v>
+        <v>25.54591323824138</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>38.74620727306436</v>
+        <v>43.33508884978441</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>41.28320210625971</v>
+        <v>47.34489609250944</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.33160294280742</v>
+        <v>48.13225274085519</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>46.49384939874517</v>
+        <v>54.5775981761534</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>49.99990606899071</v>
+        <v>58.97933031517742</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>32.35643563400751</v>
+        <v>21.3846007306132</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>48.7018322185469</v>
+        <v>46.89229701166553</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>53.4294888326374</v>
+        <v>52.92563372911796</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.22791626621203</v>
+        <v>7.740194414146607</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>30.87491186304648</v>
+        <v>38.87088493731915</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>33.66783850170261</v>
+        <v>47.26234944239832</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>22.75539460943498</v>
+        <v>9.979487178818584</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.22497051264641</v>
+        <v>35.41494190166942</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.24854658181544</v>
+        <v>43.07204095615341</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.95287426151909</v>
+        <v>24.95698555571198</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>38.64047023177783</v>
+        <v>45.96663469124354</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>41.14968431406417</v>
+        <v>52.28776558364488</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.21537156639302</v>
+        <v>50.65373280096359</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.25788524470418</v>
+        <v>58.63117330916248</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>49.72743139871481</v>
+        <v>64.97459547725703</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>32.29669696366018</v>
+        <v>23.41963869380162</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>48.44311607368213</v>
+        <v>54.03754498825283</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>53.12284246606961</v>
+        <v>62.74592859786073</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>32.78421142032645</v>
+        <v>14.16626580952241</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.43665718856496</v>
+        <v>48.12622166137404</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>45.26447982772126</v>
+        <v>56.33040416101495</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>35.07018263678945</v>
+        <v>17.29489056483986</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>45.54562818033092</v>
+        <v>45.69777832103583</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>48.61086897370539</v>
+        <v>53.29492557459399</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>42.65994957296864</v>
+        <v>34.70728967047346</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>51.35348854542329</v>
+        <v>58.43822126927694</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>53.89944910408302</v>
+        <v>64.64098519047951</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>48.9332603189761</v>
+        <v>67.60589198482538</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>58.98265540443813</v>
+        <v>75.67846868890163</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>62.50442586783111</v>
+        <v>82.36186890884558</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>44.86559777111124</v>
+        <v>36.60399749522023</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>61.01451820519701</v>
+        <v>70.72681584809581</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>65.74800758082323</v>
+        <v>79.31800225307882</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>33.2260857462942</v>
+        <v>4.304396134686421</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>43.22865139733429</v>
+        <v>32.84454006563273</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>46.08591764363579</v>
+        <v>38.70387583751496</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>35.38475966333357</v>
+        <v>9.713936282031025</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>46.24273817285141</v>
+        <v>32.44217472407474</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>49.33511451877967</v>
+        <v>37.55740502522054</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>43.12793537258396</v>
+        <v>22.10471692071851</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>52.13796768580412</v>
+        <v>40.93381752997909</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>54.70513556569505</v>
+        <v>45.06970043312454</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>49.26111366598127</v>
+        <v>45.30232303184222</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>59.66190394413861</v>
+        <v>52.33472377636633</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>63.21094101322301</v>
+        <v>56.87948730589224</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>44.6902329560448</v>
+        <v>17.21106044800541</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>61.43372623885048</v>
+        <v>44.2425659983622</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>66.21617437875815</v>
+        <v>50.40071248938705</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>33.32485945438494</v>
+        <v>2.611901500388615</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>43.20618000049446</v>
+        <v>35.07849211641437</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>46.03362726989874</v>
+        <v>43.79773222320817</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>35.35239324073444</v>
+        <v>4.25440231412745</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>46.07935125019441</v>
+        <v>31.0603495408198</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>49.13871088607696</v>
+        <v>39.03329314771795</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>42.97893431361319</v>
+        <v>19.79738403660679</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>51.88076231666789</v>
+        <v>41.92609283039911</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>54.41994876224814</v>
+        <v>48.52136349173441</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>48.99855084267213</v>
+        <v>46.244523484336</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>59.27626064405423</v>
+        <v>54.85303488109646</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>62.7882385144416</v>
+        <v>61.48336096207127</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>44.49156823260913</v>
+        <v>17.6819727794387</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>61.03038792420121</v>
+        <v>49.93680749287662</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>65.7645147125228</v>
+        <v>58.97201765654634</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>44.76207519678157</v>
+        <v>8.992832336385174</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>54.6500379279839</v>
+        <v>44.30874093597974</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>57.51258851852723</v>
+        <v>52.89494519469989</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>47.55025981473248</v>
+        <v>11.44282492549182</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>58.28409556747639</v>
+        <v>41.23337932864458</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>61.38550226186857</v>
+        <v>49.19982309050246</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>55.56984467376161</v>
+        <v>29.48133307081543</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>64.47849104539658</v>
+        <v>54.35626414550745</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>67.0547353298487</v>
+        <v>60.87969480631234</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>61.61268105285786</v>
+        <v>63.25349194732711</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>71.89834827767834</v>
+        <v>71.96458251737931</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>75.46421119447591</v>
+        <v>79.00121800065149</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>56.96993735213083</v>
+        <v>30.94743476391094</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>73.51317801786081</v>
+        <v>66.72553670129429</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>78.30151790139035</v>
+        <v>75.70539750808054</v>
       </c>
     </row>
   </sheetData>
